--- a/excel/QuickSelectResults.xlsx
+++ b/excel/QuickSelectResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32745" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Quick Select Results" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,7 +1039,60 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1081,7 +1134,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1258,6 +1311,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{92b2feb7-0b79-4dc2-956c-196c27ee7945}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1890,7 +1948,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11106150" y="2927350"/>
+        <a:off x="11106150" y="2755900"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2165,7 +2223,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2175,7 +2233,7 @@
     <col min="14" max="14" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:14">
+    <row r="1" ht="27" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
